--- a/document/gameDB.xlsx
+++ b/document/gameDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trg03\OneDrive\문서\BlackPotion\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{278E9DA4-4CED-4965-A241-0B9A0291ADD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC13A55-8F83-4F6F-BCAF-FE5698815787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDB" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,54 @@
   </si>
   <si>
     <t>가루약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소품질</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinQuality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료1최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료2최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료3최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재료별 최대 용량을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없을 시 x표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,19 +686,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
   <dimension ref="A2:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,15 +722,19 @@
       <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,8 +756,14 @@
       <c r="G3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -772,8 +832,14 @@
       <c r="G8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3001</v>
       </c>
@@ -789,8 +855,14 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H9">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>3002</v>
       </c>
@@ -806,8 +878,14 @@
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3003</v>
       </c>
@@ -823,8 +901,14 @@
       <c r="G11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H11">
+        <v>21</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3004</v>
       </c>
@@ -839,6 +923,12 @@
       </c>
       <c r="G12">
         <v>3</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -851,18 +941,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9932644-747F-497D-A476-3825023631DA}">
   <dimension ref="A2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -887,14 +978,20 @@
       <c r="H2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,8 +1016,13 @@
       <c r="H3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -935,8 +1037,13 @@
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +1055,13 @@
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -987,8 +1099,17 @@
       <c r="H8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1010,8 +1131,17 @@
       <c r="H9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I9">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1033,8 +1163,17 @@
       <c r="H10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>21</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1056,8 +1195,17 @@
       <c r="H11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1079,11 +1227,23 @@
       <c r="H12" t="s">
         <v>50</v>
       </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/gameDB.xlsx
+++ b/document/gameDB.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC13A55-8F83-4F6F-BCAF-FE5698815787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2932F2F-8AEF-4368-B981-2616E632649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
     <sheet name="QuestDB" sheetId="1" r:id="rId1"/>
     <sheet name="PotionDB" sheetId="2" r:id="rId2"/>
+    <sheet name="BuffDB" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +289,94 @@
   </si>
   <si>
     <t>MaxMount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프내용에 들어가는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 적는칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExplain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수정제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수정제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0은 사용X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치는 1~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조기강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장난양조기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 1~13사이의 랜덤한 홀수 수치가 들어갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 2~12사이의 랜덤한 짝수 수치가 들어갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조후 품질수치를 %d만큼 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~13사이의 랜덤한 숫자 하나가 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 들어가는 재료의 수치가 +%d만큼 올라간다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +438,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,21 +778,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
   <dimension ref="A2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +826,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,7 +905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -839,7 +931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>3001</v>
       </c>
@@ -862,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>3002</v>
       </c>
@@ -885,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>3003</v>
       </c>
@@ -908,7 +1000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>3004</v>
       </c>
@@ -942,18 +1034,18 @@
   <dimension ref="A2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +1083,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1114,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1135,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1153,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1109,7 +1201,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1001</v>
       </c>
@@ -1141,7 +1233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>1002</v>
       </c>
@@ -1173,7 +1265,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>1003</v>
       </c>
@@ -1205,7 +1297,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1004</v>
       </c>
@@ -1248,4 +1340,206 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5F926-470C-4026-BBFC-E92BA2EA9ED9}">
+  <dimension ref="A2:N14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.19921875" customWidth="1"/>
+    <col min="6" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>4001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>4002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>4003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>4004</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>4005</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>4006</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/gameDB.xlsx
+++ b/document/gameDB.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\C\Documents\GitHub\BlackPotion\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2932F2F-8AEF-4368-B981-2616E632649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1381FE5-6D20-4598-A17D-81E2D5ACCFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{03D0CECF-AD05-4478-86A2-3E37155843BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="QuestDB" sheetId="1" r:id="rId1"/>
-    <sheet name="PotionDB" sheetId="2" r:id="rId2"/>
-    <sheet name="BuffDB" sheetId="4" r:id="rId3"/>
+    <sheet name="QuestDT" sheetId="1" r:id="rId1"/>
+    <sheet name="TextDT" sheetId="2" r:id="rId2"/>
+    <sheet name="RecipeDT" sheetId="4" r:id="rId3"/>
+    <sheet name="MaterialDT" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="101">
   <si>
     <t>//</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,54 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구포션ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레시피등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:소량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:중량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:대량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글귀표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어떤 포션이 필요한지 iD로 표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:일반</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,267 +69,345 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QuestId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>포션ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션 등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료는 최대 3가지 있을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3가지 이하일 경우 X표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IngredientCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredient1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredient2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ingredient3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포션이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해충제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>희귀 회복약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해충약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가루약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료1최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료2최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료3최대용량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 재료별 최대 용량을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없을 시 x표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxMount3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프내용에 들어가는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치를 적는칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffExplain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝수정제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀수정제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0은 사용X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치는 1~100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증가가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양조기강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고장난양조기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 1~13사이의 랜덤한 홀수 수치가 들어갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 2~12사이의 랜덤한 짝수 수치가 들어갑니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조후 품질수치를 %d만큼 올려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~13사이의 랜덤한 숫자 하나가 들어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 들어가는 재료의 수치가 +%d만큼 올라간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>의뢰이름</t>
+  </si>
+  <si>
+    <t>의뢰 스토리</t>
+  </si>
+  <si>
+    <t>요구 포션 레시피</t>
+  </si>
+  <si>
+    <t>의뢰 등급</t>
+  </si>
+  <si>
+    <t>최소 용량</t>
+  </si>
+  <si>
+    <t>최대용량</t>
+  </si>
+  <si>
+    <t>보상</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
+    <t>의뢰의 Id 표시</t>
+  </si>
+  <si>
+    <t>예시)</t>
+  </si>
+  <si>
+    <t>1xxx</t>
+  </si>
+  <si>
+    <t>의뢰 제목Text표기</t>
+  </si>
+  <si>
+    <t>의뢰에 쓰일</t>
+  </si>
+  <si>
+    <t>의뢰에 사용할</t>
+  </si>
+  <si>
+    <t>포션 레시피 ID 표기</t>
+  </si>
+  <si>
+    <t>0: 소량</t>
+  </si>
+  <si>
+    <t>1: 중량</t>
+  </si>
+  <si>
+    <t>2: 대량</t>
+  </si>
+  <si>
+    <t>의뢰를 클리어할 수 있는</t>
+  </si>
+  <si>
+    <t>최소한의 용량</t>
+  </si>
+  <si>
+    <t>의뢰를 클리어할 때</t>
+  </si>
+  <si>
+    <t>해당 수치에 맞추면</t>
+  </si>
+  <si>
+    <t>추가 보상</t>
+  </si>
+  <si>
+    <t>스토리 TextID표기</t>
+  </si>
+  <si>
+    <t>QuestName</t>
+  </si>
+  <si>
+    <t>ExplainTextID</t>
+  </si>
+  <si>
+    <t>NeedPotionID</t>
   </si>
   <si>
     <t>QuestGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QuestText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecipeGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션 등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료는 최대 3가지 있을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3가지 이하일 경우 X표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IngredientCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ingredient1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ingredient2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ingredient3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포션이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PotionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해충제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>희귀 회복약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>허브</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해충약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가루약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 품질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소품질</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MinQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료1최대용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료2최대용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재료3최대용량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 재료별 최대 용량을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없을 시 x표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMount1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMount2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxMount3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버프내용에 들어가는</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치를 적는칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffExplain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짝수정제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀수정제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0은 사용X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수치는 1~100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증가가루</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양조기강화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고장난양조기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 1~13사이의 랜덤한 홀수 수치가 들어갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 2~12사이의 랜덤한 짝수 수치가 들어갑니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제조후 품질수치를 %d만큼 올려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~13사이의 랜덤한 숫자 하나가 들어간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용시 들어가는 재료의 수치가 +%d만큼 올라간다.</t>
+  </si>
+  <si>
+    <t>MinCapacity</t>
+  </si>
+  <si>
+    <t>MaxCapacity</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>QuestID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의뢰 클리어시 보상
+표기방식
+(골드, 레시피등급)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,8 +431,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,12 +476,66 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7EAED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -429,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,8 +555,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34A05CD5-73C0-4C46-8E79-8BB9E4A89255}">
-  <dimension ref="A2:N12"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -787,38 +927,40 @@
     <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.59765625" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>51</v>
+      <c r="B2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -826,204 +968,152 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B9">
-        <v>3001</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1001</v>
-      </c>
-      <c r="F9">
-        <v>50</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>3002</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1001</v>
-      </c>
-      <c r="F10">
-        <v>55</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>14</v>
-      </c>
-      <c r="I10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>3003</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>1002</v>
-      </c>
-      <c r="F11">
-        <v>75</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>21</v>
-      </c>
-      <c r="I11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B12">
-        <v>3004</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1001</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
-      <c r="I12">
-        <v>43</v>
+      <c r="B8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="I4:I7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1050,34 +1140,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1119,18 +1209,18 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1143,12 +1233,12 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1158,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -1171,34 +1261,34 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>39</v>
       </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1206,7 +1296,7 @@
         <v>1001</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1215,22 +1305,22 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -1238,7 +1328,7 @@
         <v>1002</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1247,22 +1337,22 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -1270,7 +1360,7 @@
         <v>1003</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1279,13 +1369,13 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I11">
         <v>15</v>
@@ -1294,7 +1384,7 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -1302,7 +1392,7 @@
         <v>1004</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1311,13 +1401,13 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="I12">
         <v>13</v>
@@ -1346,7 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE5F926-470C-4026-BBFC-E92BA2EA9ED9}">
   <dimension ref="A2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1364,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1401,44 +1491,29 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
@@ -1446,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
@@ -1468,13 +1543,13 @@
         <v>4001</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
@@ -1482,13 +1557,13 @@
         <v>4002</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
@@ -1496,13 +1571,13 @@
         <v>4003</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
@@ -1510,13 +1585,13 @@
         <v>4004</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
@@ -1524,13 +1599,13 @@
         <v>4005</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -1542,4 +1617,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E22D7F-3C4C-4683-B214-9ABA0466D1C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>